--- a/Docs/Api.xlsx
+++ b/Docs/Api.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Project_MK\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -565,7 +570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,6 +789,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -793,35 +825,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,6 +837,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -880,7 +888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,7 +923,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1126,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,10 +1155,10 @@
   <sheetData>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1161,8 +1169,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1171,8 +1179,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1181,24 +1189,24 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1207,25 +1215,25 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1233,17 +1241,17 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4">
@@ -1251,41 +1259,41 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1296,8 +1304,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1314,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1316,24 +1324,24 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="24" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1342,16 +1350,16 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1360,9 +1368,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1370,25 +1378,25 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="4">
@@ -1396,33 +1404,33 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="24" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:13" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1445,8 +1453,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1467,8 +1475,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="3" t="s">
         <v>1</v>
       </c>
@@ -1489,24 +1497,24 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="24" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="F40" s="24" t="s">
+      <c r="D40" s="20"/>
+      <c r="F40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="L40" s="24" t="s">
+      <c r="G40" s="20"/>
+      <c r="L40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M40" s="25"/>
+      <c r="M40" s="20"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1535,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1545,24 +1553,24 @@
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="24" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="F43" s="24" t="s">
+      <c r="D43" s="20"/>
+      <c r="F43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="L43" s="24" t="s">
+      <c r="G43" s="20"/>
+      <c r="L43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="25"/>
+      <c r="M43" s="20"/>
     </row>
     <row r="44" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="26"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1583,21 +1591,21 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="21" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="21" t="s">
+      <c r="L45" s="17" t="s">
         <v>6</v>
       </c>
       <c r="M45" s="4" t="s">
@@ -1605,47 +1613,47 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="4"/>
-      <c r="F46" s="21"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L46" s="21"/>
+      <c r="L46" s="17"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="21"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="21"/>
+      <c r="L47" s="17"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="21" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="4">
         <v>200</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="4">
         <v>201</v>
       </c>
-      <c r="L48" s="21" t="s">
+      <c r="L48" s="17" t="s">
         <v>7</v>
       </c>
       <c r="M48" s="4">
@@ -1653,54 +1661,54 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="4"/>
-      <c r="F49" s="21"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="4">
         <v>500</v>
       </c>
-      <c r="L49" s="21"/>
+      <c r="L49" s="17"/>
       <c r="M49" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="21"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="4">
         <v>400</v>
       </c>
-      <c r="F50" s="21"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="4">
         <v>400</v>
       </c>
-      <c r="L50" s="21"/>
+      <c r="L50" s="17"/>
       <c r="M50" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="24" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="F51" s="24" t="s">
+      <c r="D51" s="20"/>
+      <c r="F51" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="L51" s="24" t="s">
+      <c r="G51" s="20"/>
+      <c r="L51" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M51" s="25"/>
+      <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
@@ -1717,13 +1725,13 @@
       <c r="M52" s="8"/>
     </row>
     <row r="53" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
+      <c r="A53" s="27"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
     <row r="54" spans="1:13" ht="104.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="26" t="s">
+      <c r="A54" s="27"/>
+      <c r="B54" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1740,8 +1748,8 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="26"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="3" t="s">
         <v>0</v>
       </c>
@@ -1756,8 +1764,8 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="26"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
@@ -1772,20 +1780,20 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="24" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="L57" s="24" t="s">
+      <c r="D57" s="20"/>
+      <c r="L57" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M57" s="25"/>
+      <c r="M57" s="20"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,8 +1808,8 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
@@ -1812,20 +1820,20 @@
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="24" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="L60" s="24" t="s">
+      <c r="D60" s="20"/>
+      <c r="L60" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="25"/>
+      <c r="M60" s="20"/>
     </row>
     <row r="61" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
@@ -1840,15 +1848,15 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="21" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L62" s="21" t="s">
+      <c r="L62" s="17" t="s">
         <v>6</v>
       </c>
       <c r="M62" s="4" t="s">
@@ -1856,33 +1864,33 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="21"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L63" s="21"/>
+      <c r="L63" s="17"/>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="21"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="4"/>
-      <c r="L64" s="21"/>
+      <c r="L64" s="17"/>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="21" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="4">
         <v>200</v>
       </c>
-      <c r="L65" s="21" t="s">
+      <c r="L65" s="17" t="s">
         <v>7</v>
       </c>
       <c r="M65" s="4">
@@ -1890,44 +1898,44 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="21"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="4">
         <v>400</v>
       </c>
-      <c r="L66" s="21"/>
+      <c r="L66" s="17"/>
       <c r="M66" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="21"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="4">
         <v>500</v>
       </c>
-      <c r="L67" s="21"/>
+      <c r="L67" s="17"/>
       <c r="M67" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="24" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="L68" s="24" t="s">
+      <c r="D68" s="20"/>
+      <c r="L68" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M68" s="25"/>
+      <c r="M68" s="20"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="3" t="s">
         <v>44</v>
       </c>
@@ -1938,231 +1946,231 @@
       <c r="M69" s="8"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="21" t="s">
+      <c r="A70" s="27"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="29"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="12"/>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="21"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="29"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="12"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="21" t="s">
+      <c r="A72" s="27"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="29"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="12"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="21"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F73" s="29"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="12"/>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="21" t="s">
+      <c r="A74" s="27"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="29"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="12"/>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="21"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="17"/>
       <c r="D75" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F75" s="29"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="12"/>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="21" t="s">
+      <c r="A76" s="27"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="17" t="s">
         <v>137</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F76" s="29"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="12"/>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="21"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F77" s="29"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="12"/>
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="21" t="s">
+      <c r="A78" s="27"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="29"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="12"/>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="21"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F79" s="29"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="12"/>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="21"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F80" s="29"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="12"/>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="21"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="17"/>
       <c r="D81" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F81" s="29"/>
+      <c r="F81" s="22"/>
       <c r="G81" s="12"/>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="21" t="s">
+      <c r="A82" s="27"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F82" s="29"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="12"/>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="21"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="17"/>
       <c r="D83" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F83" s="29"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="12"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="21"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="17"/>
       <c r="D84" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F84" s="29"/>
+      <c r="F84" s="22"/>
       <c r="G84" s="12"/>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="21" t="s">
+      <c r="A85" s="27"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="29"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="12"/>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="22"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F86" s="29"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="12"/>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="18"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="23"/>
+      <c r="A87" s="27"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
-      <c r="B88" s="26" t="s">
+      <c r="A88" s="27"/>
+      <c r="B88" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2191,8 +2199,8 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="B89" s="26"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="6" t="s">
         <v>0</v>
       </c>
@@ -2219,8 +2227,8 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="26"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="6" t="s">
         <v>1</v>
       </c>
@@ -2247,28 +2255,28 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="24" t="s">
+      <c r="A91" s="27"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="F91" s="24" t="s">
+      <c r="D91" s="20"/>
+      <c r="F91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G91" s="25"/>
-      <c r="I91" s="24" t="s">
+      <c r="G91" s="20"/>
+      <c r="I91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J91" s="25"/>
-      <c r="L91" s="24" t="s">
+      <c r="J91" s="20"/>
+      <c r="L91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M91" s="25"/>
+      <c r="M91" s="20"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
-      <c r="B92" s="26"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="6" t="s">
         <v>3</v>
       </c>
@@ -2295,8 +2303,8 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
-      <c r="B93" s="26"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="6" t="s">
         <v>4</v>
       </c>
@@ -2317,28 +2325,28 @@
       <c r="M93" s="5"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="24" t="s">
+      <c r="A94" s="27"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="F94" s="24" t="s">
+      <c r="D94" s="20"/>
+      <c r="F94" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="25"/>
-      <c r="I94" s="24" t="s">
+      <c r="G94" s="20"/>
+      <c r="I94" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="25"/>
-      <c r="L94" s="24" t="s">
+      <c r="J94" s="20"/>
+      <c r="L94" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="25"/>
+      <c r="M94" s="20"/>
     </row>
     <row r="95" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="26"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="6" t="s">
         <v>5</v>
       </c>
@@ -2361,27 +2369,27 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="21" t="s">
+      <c r="A96" s="27"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I96" s="21" t="s">
+      <c r="I96" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L96" s="21" t="s">
+      <c r="L96" s="17" t="s">
         <v>6</v>
       </c>
       <c r="M96" s="4" t="s">
@@ -2389,57 +2397,57 @@
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="21"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="17"/>
       <c r="D97" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F97" s="21"/>
+      <c r="F97" s="17"/>
       <c r="G97" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I97" s="21"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L97" s="21"/>
+      <c r="L97" s="17"/>
       <c r="M97" s="4"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="21"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="17"/>
       <c r="D98" s="4"/>
-      <c r="F98" s="21"/>
+      <c r="F98" s="17"/>
       <c r="G98" s="4"/>
-      <c r="I98" s="21"/>
+      <c r="I98" s="17"/>
       <c r="J98" s="4"/>
-      <c r="L98" s="21"/>
+      <c r="L98" s="17"/>
       <c r="M98" s="4"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="21" t="s">
+      <c r="A99" s="27"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="4">
         <v>200</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G99" s="4">
         <v>200</v>
       </c>
-      <c r="I99" s="21" t="s">
+      <c r="I99" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J99" s="4">
         <v>200</v>
       </c>
-      <c r="L99" s="21" t="s">
+      <c r="L99" s="17" t="s">
         <v>7</v>
       </c>
       <c r="M99" s="4">
@@ -2447,68 +2455,68 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="21"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="17"/>
       <c r="D100" s="4">
         <v>400</v>
       </c>
-      <c r="F100" s="21"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="4">
         <v>400</v>
       </c>
-      <c r="I100" s="21"/>
+      <c r="I100" s="17"/>
       <c r="J100" s="4">
         <v>400</v>
       </c>
-      <c r="L100" s="21"/>
+      <c r="L100" s="17"/>
       <c r="M100" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="21"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="17"/>
       <c r="D101" s="4">
         <v>500</v>
       </c>
-      <c r="F101" s="21"/>
+      <c r="F101" s="17"/>
       <c r="G101" s="4">
         <v>500</v>
       </c>
-      <c r="I101" s="21"/>
+      <c r="I101" s="17"/>
       <c r="J101" s="4">
         <v>500</v>
       </c>
-      <c r="L101" s="21"/>
+      <c r="L101" s="17"/>
       <c r="M101" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="24" t="s">
+      <c r="A102" s="27"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="25"/>
-      <c r="F102" s="24" t="s">
+      <c r="D102" s="20"/>
+      <c r="F102" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="25"/>
-      <c r="I102" s="24" t="s">
+      <c r="G102" s="20"/>
+      <c r="I102" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J102" s="25"/>
-      <c r="L102" s="24" t="s">
+      <c r="J102" s="20"/>
+      <c r="L102" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M102" s="25"/>
+      <c r="M102" s="20"/>
     </row>
     <row r="103" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="18"/>
-      <c r="B103" s="26"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="6" t="s">
         <v>44</v>
       </c>
@@ -2531,8 +2539,8 @@
       <c r="M103" s="8"/>
     </row>
     <row r="104" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="18"/>
-      <c r="B104" s="26"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="15" t="s">
         <v>72</v>
       </c>
@@ -2555,15 +2563,15 @@
       <c r="M104" s="14"/>
     </row>
     <row r="105" spans="1:16" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="18"/>
+      <c r="A105" s="27"/>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
       <c r="O105" s="14"/>
       <c r="P105" s="14"/>
     </row>
     <row r="106" spans="1:16" ht="116.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18"/>
-      <c r="B106" s="26" t="s">
+      <c r="A106" s="27"/>
+      <c r="B106" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -2592,8 +2600,8 @@
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="B107" s="26"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="6" t="s">
         <v>0</v>
       </c>
@@ -2620,8 +2628,8 @@
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
-      <c r="B108" s="26"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="6" t="s">
         <v>1</v>
       </c>
@@ -2648,28 +2656,28 @@
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="24" t="s">
+      <c r="A109" s="27"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="25"/>
-      <c r="F109" s="24" t="s">
+      <c r="D109" s="20"/>
+      <c r="F109" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G109" s="25"/>
-      <c r="L109" s="24" t="s">
+      <c r="G109" s="20"/>
+      <c r="L109" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M109" s="25"/>
-      <c r="O109" s="24" t="s">
+      <c r="M109" s="20"/>
+      <c r="O109" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P109" s="25"/>
+      <c r="P109" s="20"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="18"/>
-      <c r="B110" s="26"/>
+      <c r="A110" s="27"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="6" t="s">
         <v>3</v>
       </c>
@@ -2696,8 +2704,8 @@
       </c>
     </row>
     <row r="111" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
-      <c r="B111" s="26"/>
+      <c r="A111" s="27"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="6" t="s">
         <v>4</v>
       </c>
@@ -2718,32 +2726,32 @@
       <c r="P111" s="5"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="24" t="s">
+      <c r="A112" s="27"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="25"/>
-      <c r="F112" s="24" t="s">
+      <c r="D112" s="20"/>
+      <c r="F112" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="25"/>
-      <c r="L112" s="24" t="s">
+      <c r="G112" s="20"/>
+      <c r="L112" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M112" s="25"/>
-      <c r="O112" s="24" t="s">
+      <c r="M112" s="20"/>
+      <c r="O112" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P112" s="25"/>
+      <c r="P112" s="20"/>
     </row>
     <row r="113" spans="1:16" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="20" t="s">
+      <c r="A113" s="27"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="28" t="s">
+      <c r="D113" s="24" t="s">
         <v>85</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -2762,23 +2770,23 @@
       <c r="P113" s="5"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="28"/>
-      <c r="F114" s="20" t="s">
+      <c r="A114" s="27"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="24"/>
+      <c r="F114" s="23" t="s">
         <v>6</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L114" s="21" t="s">
+      <c r="L114" s="17" t="s">
         <v>6</v>
       </c>
       <c r="M114" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O114" s="20" t="s">
+      <c r="O114" s="23" t="s">
         <v>6</v>
       </c>
       <c r="P114" s="5" t="s">
@@ -2786,79 +2794,79 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="18"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="21" t="s">
+      <c r="A115" s="27"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="4"/>
-      <c r="F115" s="20"/>
+      <c r="F115" s="23"/>
       <c r="G115" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L115" s="21"/>
+      <c r="L115" s="17"/>
       <c r="M115" s="4"/>
-      <c r="O115" s="20"/>
+      <c r="O115" s="23"/>
       <c r="P115" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="21"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="17"/>
       <c r="D116" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F116" s="20"/>
+      <c r="F116" s="23"/>
       <c r="G116" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L116" s="21"/>
+      <c r="L116" s="17"/>
       <c r="M116" s="4"/>
-      <c r="O116" s="20"/>
+      <c r="O116" s="23"/>
       <c r="P116" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="21"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="17"/>
       <c r="D117" s="4"/>
-      <c r="F117" s="20"/>
+      <c r="F117" s="23"/>
       <c r="G117" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L117" s="21" t="s">
+      <c r="L117" s="17" t="s">
         <v>7</v>
       </c>
       <c r="M117" s="4">
         <v>200</v>
       </c>
-      <c r="O117" s="20"/>
+      <c r="O117" s="23"/>
       <c r="P117" s="4"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="21" t="s">
+      <c r="A118" s="27"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="4">
         <v>200</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="F118" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G118" s="4">
         <v>200</v>
       </c>
-      <c r="L118" s="21"/>
+      <c r="L118" s="17"/>
       <c r="M118" s="4">
         <v>500</v>
       </c>
-      <c r="O118" s="21" t="s">
+      <c r="O118" s="17" t="s">
         <v>7</v>
       </c>
       <c r="P118" s="4">
@@ -2866,64 +2874,64 @@
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="18"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="21"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="17"/>
       <c r="D119" s="4">
         <v>400</v>
       </c>
-      <c r="F119" s="21"/>
+      <c r="F119" s="17"/>
       <c r="G119" s="4">
         <v>400</v>
       </c>
-      <c r="L119" s="21"/>
+      <c r="L119" s="17"/>
       <c r="M119" s="4">
         <v>400</v>
       </c>
-      <c r="O119" s="21"/>
+      <c r="O119" s="17"/>
       <c r="P119" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="21"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="4">
         <v>500</v>
       </c>
-      <c r="F120" s="21"/>
+      <c r="F120" s="17"/>
       <c r="G120" s="4">
         <v>500</v>
       </c>
-      <c r="L120" s="24" t="s">
+      <c r="L120" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M120" s="25"/>
-      <c r="O120" s="21"/>
+      <c r="M120" s="20"/>
+      <c r="O120" s="17"/>
       <c r="P120" s="4"/>
     </row>
     <row r="121" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="18"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="24" t="s">
+      <c r="A121" s="27"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="25"/>
-      <c r="F121" s="24" t="s">
+      <c r="D121" s="20"/>
+      <c r="F121" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G121" s="25"/>
+      <c r="G121" s="20"/>
       <c r="L121" s="7"/>
       <c r="M121" s="8"/>
-      <c r="O121" s="24" t="s">
+      <c r="O121" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P121" s="25"/>
+      <c r="P121" s="20"/>
     </row>
     <row r="122" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18"/>
-      <c r="B122" s="26"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="7" t="s">
         <v>44</v>
       </c>
@@ -2950,10 +2958,10 @@
       <c r="M123" s="14"/>
     </row>
     <row r="124" spans="1:16" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -2982,8 +2990,8 @@
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
-      <c r="B125" s="26"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="6" t="s">
         <v>0</v>
       </c>
@@ -3010,8 +3018,8 @@
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
-      <c r="B126" s="26"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="6" t="s">
         <v>1</v>
       </c>
@@ -3038,28 +3046,28 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="19"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="24" t="s">
+      <c r="A127" s="28"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="25"/>
-      <c r="F127" s="24" t="s">
+      <c r="D127" s="20"/>
+      <c r="F127" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G127" s="25"/>
-      <c r="I127" s="24" t="s">
+      <c r="G127" s="20"/>
+      <c r="I127" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J127" s="25"/>
-      <c r="L127" s="24" t="s">
+      <c r="J127" s="20"/>
+      <c r="L127" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M127" s="25"/>
+      <c r="M127" s="20"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
-      <c r="B128" s="26"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="6" t="s">
         <v>3</v>
       </c>
@@ -3086,8 +3094,8 @@
       </c>
     </row>
     <row r="129" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
-      <c r="B129" s="26"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="6" t="s">
         <v>4</v>
       </c>
@@ -3110,39 +3118,39 @@
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="24" t="s">
+      <c r="A130" s="28"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="25"/>
-      <c r="F130" s="24" t="s">
+      <c r="D130" s="20"/>
+      <c r="F130" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G130" s="25"/>
-      <c r="I130" s="24" t="s">
+      <c r="G130" s="20"/>
+      <c r="I130" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J130" s="25"/>
-      <c r="L130" s="24" t="s">
+      <c r="J130" s="20"/>
+      <c r="L130" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M130" s="25"/>
+      <c r="M130" s="20"/>
     </row>
     <row r="131" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="20" t="s">
+      <c r="A131" s="28"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="F131" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G131" s="5"/>
-      <c r="I131" s="20" t="s">
+      <c r="I131" s="23" t="s">
         <v>5</v>
       </c>
       <c r="J131" s="5"/>
@@ -3154,17 +3162,17 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="20"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="23"/>
       <c r="D132" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F132" s="20"/>
+      <c r="F132" s="23"/>
       <c r="G132" s="5"/>
-      <c r="I132" s="20"/>
+      <c r="I132" s="23"/>
       <c r="J132" s="5"/>
-      <c r="L132" s="21" t="s">
+      <c r="L132" s="17" t="s">
         <v>6</v>
       </c>
       <c r="M132" s="4" t="s">
@@ -3172,55 +3180,55 @@
       </c>
     </row>
     <row r="133" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="20"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="23"/>
       <c r="D133" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F133" s="20"/>
+      <c r="F133" s="23"/>
       <c r="G133" s="5"/>
-      <c r="I133" s="20"/>
+      <c r="I133" s="23"/>
       <c r="J133" s="5"/>
-      <c r="L133" s="21"/>
+      <c r="L133" s="17"/>
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="20"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="23"/>
       <c r="D134" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F134" s="20"/>
+      <c r="F134" s="23"/>
       <c r="G134" s="5"/>
-      <c r="I134" s="20"/>
+      <c r="I134" s="23"/>
       <c r="J134" s="5"/>
-      <c r="L134" s="21"/>
+      <c r="L134" s="17"/>
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="21" t="s">
+      <c r="A135" s="28"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F135" s="21" t="s">
+      <c r="F135" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I135" s="21" t="s">
+      <c r="I135" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L135" s="21" t="s">
+      <c r="L135" s="17" t="s">
         <v>7</v>
       </c>
       <c r="M135" s="4">
@@ -3228,77 +3236,77 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="19"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="21"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="17"/>
       <c r="D136" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F136" s="21"/>
+      <c r="F136" s="17"/>
       <c r="G136" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I136" s="21"/>
+      <c r="I136" s="17"/>
       <c r="J136" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L136" s="21"/>
+      <c r="L136" s="17"/>
       <c r="M136" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="19"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="21"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="17"/>
       <c r="D137" s="4"/>
-      <c r="F137" s="21"/>
+      <c r="F137" s="17"/>
       <c r="G137" s="4"/>
-      <c r="I137" s="21"/>
+      <c r="I137" s="17"/>
       <c r="J137" s="4"/>
-      <c r="L137" s="21"/>
+      <c r="L137" s="17"/>
       <c r="M137" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="19"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="21" t="s">
+      <c r="A138" s="28"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="4">
         <v>200</v>
       </c>
-      <c r="F138" s="21" t="s">
+      <c r="F138" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="4">
         <v>200</v>
       </c>
-      <c r="I138" s="21" t="s">
+      <c r="I138" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J138" s="4">
         <v>200</v>
       </c>
-      <c r="L138" s="24" t="s">
+      <c r="L138" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M138" s="25"/>
+      <c r="M138" s="20"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="19"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="21"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="17"/>
       <c r="D139" s="4">
         <v>400</v>
       </c>
-      <c r="F139" s="21"/>
+      <c r="F139" s="17"/>
       <c r="G139" s="4">
         <v>400</v>
       </c>
-      <c r="I139" s="21"/>
+      <c r="I139" s="17"/>
       <c r="J139" s="4">
         <v>400</v>
       </c>
@@ -3306,53 +3314,53 @@
       <c r="M139" s="8"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="19"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="21"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="17"/>
       <c r="D140" s="4">
         <v>500</v>
       </c>
-      <c r="F140" s="21"/>
+      <c r="F140" s="17"/>
       <c r="G140" s="4">
         <v>500</v>
       </c>
-      <c r="I140" s="21"/>
+      <c r="I140" s="17"/>
       <c r="J140" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="19"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="24" t="s">
+      <c r="A141" s="28"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="25"/>
-      <c r="F141" s="24" t="s">
+      <c r="D141" s="20"/>
+      <c r="F141" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G141" s="25"/>
-      <c r="I141" s="24" t="s">
+      <c r="G141" s="20"/>
+      <c r="I141" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J141" s="25"/>
+      <c r="J141" s="20"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="20" t="s">
+      <c r="A142" s="28"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="23" t="s">
         <v>100</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F142" s="20" t="s">
+      <c r="F142" s="23" t="s">
         <v>100</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I142" s="20" t="s">
+      <c r="I142" s="23" t="s">
         <v>100</v>
       </c>
       <c r="J142" s="4" t="s">
@@ -3360,69 +3368,69 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
+      <c r="A143" s="28"/>
       <c r="B143" s="11"/>
-      <c r="C143" s="20"/>
+      <c r="C143" s="23"/>
       <c r="D143" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F143" s="20"/>
+      <c r="F143" s="23"/>
       <c r="G143" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I143" s="20"/>
+      <c r="I143" s="23"/>
       <c r="J143" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="19"/>
+      <c r="A144" s="28"/>
       <c r="B144" s="11"/>
-      <c r="C144" s="20"/>
+      <c r="C144" s="23"/>
       <c r="D144" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F144" s="20"/>
+      <c r="F144" s="23"/>
       <c r="G144" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I144" s="20"/>
+      <c r="I144" s="23"/>
       <c r="J144" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="19"/>
+      <c r="A145" s="28"/>
       <c r="B145" s="11"/>
-      <c r="C145" s="20"/>
+      <c r="C145" s="23"/>
       <c r="D145" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F145" s="20"/>
+      <c r="F145" s="23"/>
       <c r="G145" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I145" s="20"/>
+      <c r="I145" s="23"/>
       <c r="J145" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="19"/>
+      <c r="A146" s="28"/>
       <c r="B146" s="11"/>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F146" s="20" t="s">
+      <c r="F146" s="23" t="s">
         <v>49</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I146" s="20" t="s">
+      <c r="I146" s="23" t="s">
         <v>49</v>
       </c>
       <c r="J146" s="4" t="s">
@@ -3430,27 +3438,27 @@
       </c>
     </row>
     <row r="147" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="19"/>
+      <c r="A147" s="28"/>
       <c r="B147" s="11"/>
-      <c r="C147" s="27"/>
+      <c r="C147" s="25"/>
       <c r="D147" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F147" s="27"/>
+      <c r="F147" s="25"/>
       <c r="G147" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I147" s="27"/>
+      <c r="I147" s="25"/>
       <c r="J147" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="19"/>
+      <c r="A148" s="28"/>
     </row>
     <row r="149" spans="1:16" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="19"/>
-      <c r="B149" s="26" t="s">
+      <c r="A149" s="28"/>
+      <c r="B149" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -3473,8 +3481,8 @@
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="19"/>
-      <c r="B150" s="26"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="6" t="s">
         <v>0</v>
       </c>
@@ -3495,8 +3503,8 @@
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="19"/>
-      <c r="B151" s="26"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="6" t="s">
         <v>1</v>
       </c>
@@ -3517,24 +3525,24 @@
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="19"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="24" t="s">
+      <c r="A152" s="28"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="25"/>
-      <c r="F152" s="24" t="s">
+      <c r="D152" s="20"/>
+      <c r="F152" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G152" s="25"/>
-      <c r="O152" s="24" t="s">
+      <c r="G152" s="20"/>
+      <c r="O152" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P152" s="25"/>
+      <c r="P152" s="20"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="19"/>
-      <c r="B153" s="26"/>
+      <c r="A153" s="28"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="6" t="s">
         <v>3</v>
       </c>
@@ -3555,8 +3563,8 @@
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="19"/>
-      <c r="B154" s="26"/>
+      <c r="A154" s="28"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="6" t="s">
         <v>4</v>
       </c>
@@ -3571,24 +3579,24 @@
       <c r="P154" s="5"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="19"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="24" t="s">
+      <c r="A155" s="28"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D155" s="25"/>
-      <c r="F155" s="24" t="s">
+      <c r="D155" s="20"/>
+      <c r="F155" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G155" s="25"/>
-      <c r="O155" s="24" t="s">
+      <c r="G155" s="20"/>
+      <c r="O155" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P155" s="25"/>
+      <c r="P155" s="20"/>
     </row>
     <row r="156" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
-      <c r="B156" s="26"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="6" t="s">
         <v>5</v>
       </c>
@@ -3605,9 +3613,9 @@
       <c r="P156" s="5"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="19"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="20" t="s">
+      <c r="A157" s="28"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -3615,7 +3623,7 @@
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="5"/>
-      <c r="O157" s="20" t="s">
+      <c r="O157" s="23" t="s">
         <v>6</v>
       </c>
       <c r="P157" s="5" t="s">
@@ -3623,65 +3631,65 @@
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="19"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="20"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="23"/>
       <c r="D158" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F158" s="21" t="s">
+      <c r="F158" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O158" s="20"/>
+      <c r="O158" s="23"/>
       <c r="P158" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="19"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="20"/>
+      <c r="A159" s="28"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="23"/>
       <c r="D159" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F159" s="21"/>
+      <c r="F159" s="17"/>
       <c r="G159" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O159" s="20"/>
+      <c r="O159" s="23"/>
       <c r="P159" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="19"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="20"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="23"/>
       <c r="D160" s="4"/>
-      <c r="F160" s="21"/>
+      <c r="F160" s="17"/>
       <c r="G160" s="4"/>
-      <c r="O160" s="20"/>
+      <c r="O160" s="23"/>
       <c r="P160" s="4"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="19"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="21" t="s">
+      <c r="A161" s="28"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="4">
         <v>200</v>
       </c>
-      <c r="F161" s="21" t="s">
+      <c r="F161" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G161" s="4">
         <v>200</v>
       </c>
-      <c r="O161" s="21" t="s">
+      <c r="O161" s="17" t="s">
         <v>7</v>
       </c>
       <c r="P161" s="4">
@@ -3689,61 +3697,61 @@
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="19"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="21"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="17"/>
       <c r="D162" s="4">
         <v>400</v>
       </c>
-      <c r="F162" s="21"/>
+      <c r="F162" s="17"/>
       <c r="G162" s="4">
         <v>400</v>
       </c>
-      <c r="O162" s="21"/>
+      <c r="O162" s="17"/>
       <c r="P162" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="19"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="21"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="17"/>
       <c r="D163" s="4">
         <v>500</v>
       </c>
-      <c r="F163" s="21"/>
+      <c r="F163" s="17"/>
       <c r="G163" s="4">
         <v>500</v>
       </c>
-      <c r="O163" s="21"/>
+      <c r="O163" s="17"/>
       <c r="P163" s="4"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="19"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="24" t="s">
+      <c r="A164" s="28"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="25"/>
-      <c r="F164" s="24" t="s">
+      <c r="D164" s="20"/>
+      <c r="F164" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G164" s="25"/>
-      <c r="O164" s="24" t="s">
+      <c r="G164" s="20"/>
+      <c r="O164" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P164" s="25"/>
+      <c r="P164" s="20"/>
     </row>
     <row r="165" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="19"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="21" t="s">
+      <c r="A165" s="28"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="17" t="s">
         <v>117</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F165" s="21" t="s">
+      <c r="F165" s="17" t="s">
         <v>117</v>
       </c>
       <c r="G165" s="4" t="s">
@@ -3757,33 +3765,33 @@
       </c>
     </row>
     <row r="166" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="19"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="21"/>
+      <c r="A166" s="28"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="17"/>
       <c r="D166" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F166" s="21"/>
+      <c r="F166" s="17"/>
       <c r="G166" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="19"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="21"/>
+      <c r="A167" s="28"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="17"/>
       <c r="D167" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F167" s="21"/>
+      <c r="F167" s="17"/>
       <c r="G167" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" s="19"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="21" t="s">
+      <c r="A168" s="28"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D168" s="4" t="s">
@@ -3797,9 +3805,9 @@
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A169" s="19"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="21"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="17"/>
       <c r="D169" s="4" t="s">
         <v>123</v>
       </c>
@@ -3811,9 +3819,9 @@
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="19"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="21"/>
+      <c r="A170" s="28"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="17"/>
       <c r="D170" s="4" t="s">
         <v>124</v>
       </c>
@@ -3823,9 +3831,9 @@
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A171" s="19"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="21"/>
+      <c r="A171" s="28"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="17"/>
       <c r="D171" s="4" t="s">
         <v>125</v>
       </c>
@@ -3835,9 +3843,9 @@
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A172" s="19"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="21"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="17"/>
       <c r="D172" s="4" t="s">
         <v>126</v>
       </c>
@@ -3847,9 +3855,9 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A173" s="19"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="21" t="s">
+      <c r="A173" s="28"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D173" s="4" t="s">
@@ -3863,9 +3871,9 @@
       </c>
     </row>
     <row r="174" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="19"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="22"/>
+      <c r="A174" s="28"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="21"/>
       <c r="D174" s="8" t="s">
         <v>127</v>
       </c>
@@ -3877,34 +3885,105 @@
     <row r="175" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="151">
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B37:B52"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B5:B19"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B21:B35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A5:A35"/>
+    <mergeCell ref="A37:A122"/>
+    <mergeCell ref="A124:A174"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C168:C172"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="O152:P152"/>
+    <mergeCell ref="O155:P155"/>
+    <mergeCell ref="O157:O160"/>
+    <mergeCell ref="O161:O163"/>
+    <mergeCell ref="B149:B174"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="F158:F160"/>
+    <mergeCell ref="F161:F163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="O164:P164"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="I146:I147"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="L132:L134"/>
+    <mergeCell ref="L135:L137"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I131:I134"/>
+    <mergeCell ref="I135:I137"/>
+    <mergeCell ref="I138:I140"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:F134"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:F145"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="B124:B142"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="L114:L116"/>
+    <mergeCell ref="L117:L119"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="O109:P109"/>
+    <mergeCell ref="O112:P112"/>
+    <mergeCell ref="O114:O117"/>
+    <mergeCell ref="O118:O120"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="B106:B122"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="L96:L98"/>
+    <mergeCell ref="L99:L101"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="B88:B104"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:D102"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="B54:B86"/>
@@ -3929,105 +4008,34 @@
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C75"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="B88:B104"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="L96:L98"/>
-    <mergeCell ref="L99:L101"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="O109:P109"/>
-    <mergeCell ref="O112:P112"/>
-    <mergeCell ref="O114:O117"/>
-    <mergeCell ref="O118:O120"/>
-    <mergeCell ref="O121:P121"/>
-    <mergeCell ref="B106:B122"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="B124:B142"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="L114:L116"/>
-    <mergeCell ref="L117:L119"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="I146:I147"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="L130:M130"/>
-    <mergeCell ref="L132:L134"/>
-    <mergeCell ref="L135:L137"/>
-    <mergeCell ref="L138:M138"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="I131:I134"/>
-    <mergeCell ref="I135:I137"/>
-    <mergeCell ref="I138:I140"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:F134"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:F145"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="A5:A35"/>
-    <mergeCell ref="A37:A122"/>
-    <mergeCell ref="A124:A174"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="C168:C172"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="O155:P155"/>
-    <mergeCell ref="O157:O160"/>
-    <mergeCell ref="O161:O163"/>
-    <mergeCell ref="B149:B174"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="F158:F160"/>
-    <mergeCell ref="F161:F163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="O164:P164"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B5:B19"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B21:B35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B37:B52"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F51:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Api.xlsx
+++ b/Docs/Api.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Project_MK\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamás\Desktop\Pro jo jo\Project_MK\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABDE02C-FF84-451A-8702-2EB5C2A4D43D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="139">
   <si>
     <t>URL</t>
   </si>
@@ -121,23 +122,6 @@
     <t>token</t>
   </si>
   <si>
-    <t>{
-  "calculation": {
-    "sum":  … ,
-    "income": … ,
-    "outlay": ...
-  },
-  "results": [
-    {
-      "ID": … ,
-      "amount":  … ,
-      "denomination": "...",
-      "date": "..."
-    }
-  ]
-}</t>
-  </si>
-  <si>
     <t>Hibás felhasználó!</t>
   </si>
   <si>
@@ -255,23 +239,6 @@
   </si>
   <si>
     <t>1 (rendezés növekvő sorrendben)</t>
-  </si>
-  <si>
-    <t>{
-  "calculation": {
-    "sum": … ,
-    "income": … ,
-    "outlay": ...
-  }
-  "results": [
-    {
-      "ID": … ,
-      "amount": … ,
-      "date": "...",
-      "denomination": "..."
-    }
-  ]
-}</t>
   </si>
   <si>
     <t>POSTMODIFICATION-PAGE</t>
@@ -511,8 +478,66 @@
     <t>0 (rendezés növekvő sorrendbe)</t>
   </si>
   <si>
+    <t>Minden passziv felhasználó törlése.</t>
+  </si>
+  <si>
+    <t>Törlés sikeres!</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[
+  {
+    "ID": … ,
+    "denomination": "..."
+  }
+]</t>
+  </si>
+  <si>
+    <t>Felhasználó utolsó havi adatainak kiirása.Bevétel/kiadás összegzés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A felhasználó minden posztjának elérése.Kiirás lehetésges dátum(év-hónap-nap), és/vagy kategória, és/vagy bevétel/kiadás/konkrét összeg  szerinti.Rendezhető ABC vagy számok szerinti csökkenő vagy növekvő sorrendbe.Összegzés kiirása. </t>
+  </si>
+  <si>
+    <t>:categories</t>
+  </si>
+  <si>
+    <t>USERS/ADMIN</t>
+  </si>
+  <si>
     <t>{
-  "users": [
+  "token": "...",
+  "id": … ,
+  "message": "...."
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+{
+    "sum":  … ,
+    "income": … ,
+    "outlay": ...
+  },
+    {
+      "ID": … ,
+      "amount":  … ,
+      "denomination": "...",
+      "date": "..."
+    }
+  ]
+</t>
+  </si>
+  <si>
+    <t>[  
+      {
+      "number": ...
+      },
     {
       "name": "...",
       "email": "...",
@@ -522,55 +547,13 @@
       "city": "...",
       "date": "..."
     }
-  ],
-  "number": ...
-}</t>
-  </si>
-  <si>
-    <t>Minden passziv felhasználó törlése.</t>
-  </si>
-  <si>
-    <t>Törlés sikeres!</t>
-  </si>
-  <si>
-    <t>USERS</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[
-  {
-    "ID": … ,
-    "denomination": "..."
-  }
-]</t>
-  </si>
-  <si>
-    <t>Felhasználó utolsó havi adatainak kiirása.Bevétel/kiadás összegzés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A felhasználó minden posztjának elérése.Kiirás lehetésges dátum(év-hónap-nap), és/vagy kategória, és/vagy bevétel/kiadás/konkrét összeg  szerinti.Rendezhető ABC vagy számok szerinti csökkenő vagy növekvő sorrendbe.Összegzés kiirása. </t>
-  </si>
-  <si>
-    <t>:categories</t>
-  </si>
-  <si>
-    <t>USERS/ADMIN</t>
-  </si>
-  <si>
-    <t>{
-  "token": "...",
-  "id": … ,
-  "message": "...."
-}</t>
+  ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -789,33 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -825,8 +781,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,6 +904,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -956,6 +956,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,11 +1148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1172,10 @@
   <sheetData>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1169,8 +1186,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1179,8 +1196,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1189,24 +1206,24 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1215,25 +1232,25 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1241,17 +1258,17 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4">
@@ -1259,41 +1276,41 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1304,8 +1321,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1314,8 +1331,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1324,24 +1341,24 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1350,27 +1367,27 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="23" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1378,25 +1395,25 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="23"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="17" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="4">
@@ -1404,57 +1421,57 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:13" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1471,12 +1488,12 @@
         <v>0</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="3" t="s">
         <v>1</v>
       </c>
@@ -1497,24 +1514,24 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="F40" s="19" t="s">
+      <c r="D40" s="25"/>
+      <c r="F40" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="L40" s="19" t="s">
+      <c r="G40" s="25"/>
+      <c r="L40" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M40" s="20"/>
+      <c r="M40" s="25"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,8 +1552,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
@@ -1553,107 +1570,107 @@
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="F43" s="19" t="s">
+      <c r="D43" s="25"/>
+      <c r="F43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="L43" s="19" t="s">
+      <c r="G43" s="25"/>
+      <c r="L43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="20"/>
-    </row>
-    <row r="44" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="18"/>
+      <c r="M43" s="25"/>
+    </row>
+    <row r="44" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="17" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="21" t="s">
         <v>6</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="4"/>
-      <c r="F46" s="17"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L46" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="L46" s="21"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="F47" s="21"/>
       <c r="G47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="L47" s="21"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="17" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="4">
         <v>200</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="4">
         <v>201</v>
       </c>
-      <c r="L48" s="17" t="s">
+      <c r="L48" s="21" t="s">
         <v>7</v>
       </c>
       <c r="M48" s="4">
@@ -1661,111 +1678,111 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="4"/>
-      <c r="F49" s="17"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="4">
         <v>500</v>
       </c>
-      <c r="L49" s="17"/>
+      <c r="L49" s="21"/>
       <c r="M49" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="4">
         <v>400</v>
       </c>
-      <c r="F50" s="17"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="4">
         <v>400</v>
       </c>
-      <c r="L50" s="17"/>
+      <c r="L50" s="21"/>
       <c r="M50" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="F51" s="19" t="s">
+      <c r="D51" s="25"/>
+      <c r="F51" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="L51" s="19" t="s">
+      <c r="G51" s="25"/>
+      <c r="L51" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M51" s="20"/>
+      <c r="M51" s="25"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="F52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="8"/>
     </row>
     <row r="53" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
+      <c r="A53" s="18"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
     <row r="54" spans="1:13" ht="104.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="18" t="s">
-        <v>43</v>
+      <c r="A54" s="18"/>
+      <c r="B54" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
@@ -1780,20 +1797,20 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="L57" s="19" t="s">
+      <c r="D57" s="25"/>
+      <c r="L57" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M57" s="20"/>
+      <c r="M57" s="25"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1825,8 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
@@ -1820,77 +1837,77 @@
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="L60" s="19" t="s">
+      <c r="D60" s="25"/>
+      <c r="L60" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="20"/>
-    </row>
-    <row r="61" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="18"/>
+      <c r="M60" s="25"/>
+    </row>
+    <row r="61" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>5</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="17" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L62" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" s="21" t="s">
         <v>6</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="L63" s="21"/>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="4"/>
-      <c r="L64" s="17"/>
+      <c r="L64" s="21"/>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="17" t="s">
+      <c r="A65" s="18"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="4">
         <v>200</v>
       </c>
-      <c r="L65" s="17" t="s">
+      <c r="L65" s="21" t="s">
         <v>7</v>
       </c>
       <c r="M65" s="4">
@@ -1898,337 +1915,337 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="4">
         <v>400</v>
       </c>
-      <c r="L66" s="17"/>
+      <c r="L66" s="21"/>
       <c r="M66" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="4">
         <v>500</v>
       </c>
-      <c r="L67" s="17"/>
+      <c r="L67" s="21"/>
       <c r="M67" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19" t="s">
+      <c r="A68" s="18"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="L68" s="19" t="s">
+      <c r="D68" s="25"/>
+      <c r="L68" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M68" s="20"/>
+      <c r="M68" s="25"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L69" s="7"/>
       <c r="M69" s="8"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="17" t="s">
-        <v>45</v>
+      <c r="A70" s="18"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F70" s="22"/>
+        <v>50</v>
+      </c>
+      <c r="F70" s="29"/>
       <c r="G70" s="12"/>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="F71" s="29"/>
       <c r="G71" s="12"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="17" t="s">
-        <v>46</v>
+      <c r="A72" s="18"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="F72" s="29"/>
       <c r="G72" s="12"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" s="22"/>
+        <v>55</v>
+      </c>
+      <c r="F73" s="29"/>
       <c r="G73" s="12"/>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="17" t="s">
-        <v>47</v>
+      <c r="A74" s="18"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F74" s="22"/>
+        <v>52</v>
+      </c>
+      <c r="F74" s="29"/>
       <c r="G74" s="12"/>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="F75" s="29"/>
       <c r="G75" s="12"/>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="17" t="s">
-        <v>137</v>
+      <c r="A76" s="18"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F76" s="22"/>
+        <v>53</v>
+      </c>
+      <c r="F76" s="29"/>
       <c r="G76" s="12"/>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="17"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="F77" s="29"/>
       <c r="G77" s="12"/>
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="17" t="s">
-        <v>48</v>
+      <c r="A78" s="18"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F78" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="F78" s="29"/>
       <c r="G78" s="12"/>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="F79" s="29"/>
       <c r="G79" s="12"/>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F80" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="F80" s="29"/>
       <c r="G80" s="12"/>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" s="22"/>
+        <v>60</v>
+      </c>
+      <c r="F81" s="29"/>
       <c r="G81" s="12"/>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="17" t="s">
-        <v>49</v>
+      <c r="A82" s="18"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F82" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="F82" s="29"/>
       <c r="G82" s="12"/>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="17"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F83" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="F83" s="29"/>
       <c r="G83" s="12"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="17"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="F84" s="29"/>
       <c r="G84" s="12"/>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="17" t="s">
-        <v>50</v>
+      <c r="A85" s="18"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F85" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="F85" s="29"/>
       <c r="G85" s="12"/>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="21"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="22"/>
       <c r="D86" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F86" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="F86" s="29"/>
       <c r="G86" s="12"/>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
+      <c r="A87" s="18"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="18" t="s">
-        <v>69</v>
+      <c r="A88" s="18"/>
+      <c r="B88" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="18"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L89" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M89" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="6" t="s">
         <v>1</v>
       </c>
@@ -2239,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L90" s="6" t="s">
         <v>1</v>
@@ -2255,28 +2272,28 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="19" t="s">
+      <c r="A91" s="18"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="F91" s="19" t="s">
+      <c r="D91" s="25"/>
+      <c r="F91" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G91" s="20"/>
-      <c r="I91" s="19" t="s">
+      <c r="G91" s="25"/>
+      <c r="I91" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J91" s="20"/>
-      <c r="L91" s="19" t="s">
+      <c r="J91" s="25"/>
+      <c r="L91" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M91" s="20"/>
+      <c r="M91" s="25"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="18"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="6" t="s">
         <v>3</v>
       </c>
@@ -2303,8 +2320,8 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="18"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="6" t="s">
         <v>4</v>
       </c>
@@ -2313,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>4</v>
@@ -2325,33 +2342,33 @@
       <c r="M93" s="5"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19" t="s">
+      <c r="A94" s="18"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="20"/>
-      <c r="F94" s="19" t="s">
+      <c r="D94" s="25"/>
+      <c r="F94" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="20"/>
-      <c r="I94" s="19" t="s">
+      <c r="G94" s="25"/>
+      <c r="I94" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="20"/>
-      <c r="L94" s="19" t="s">
+      <c r="J94" s="25"/>
+      <c r="L94" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="20"/>
+      <c r="M94" s="25"/>
     </row>
     <row r="95" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="18"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>5</v>
@@ -2365,89 +2382,89 @@
         <v>5</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="17" t="s">
+      <c r="A96" s="18"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F96" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I96" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I96" s="21" t="s">
         <v>6</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L96" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L96" s="21" t="s">
         <v>6</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="17"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="F97" s="21"/>
       <c r="G97" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I97" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="I97" s="21"/>
       <c r="J97" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L97" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="L97" s="21"/>
       <c r="M97" s="4"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="17"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="4"/>
-      <c r="F98" s="17"/>
+      <c r="F98" s="21"/>
       <c r="G98" s="4"/>
-      <c r="I98" s="17"/>
+      <c r="I98" s="21"/>
       <c r="J98" s="4"/>
-      <c r="L98" s="17"/>
+      <c r="L98" s="21"/>
       <c r="M98" s="4"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="17" t="s">
+      <c r="A99" s="18"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="4">
         <v>200</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G99" s="4">
         <v>200</v>
       </c>
-      <c r="I99" s="17" t="s">
+      <c r="I99" s="21" t="s">
         <v>7</v>
       </c>
       <c r="J99" s="4">
         <v>200</v>
       </c>
-      <c r="L99" s="17" t="s">
+      <c r="L99" s="21" t="s">
         <v>7</v>
       </c>
       <c r="M99" s="4">
@@ -2455,181 +2472,181 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="17"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="4">
         <v>400</v>
       </c>
-      <c r="F100" s="17"/>
+      <c r="F100" s="21"/>
       <c r="G100" s="4">
         <v>400</v>
       </c>
-      <c r="I100" s="17"/>
+      <c r="I100" s="21"/>
       <c r="J100" s="4">
         <v>400</v>
       </c>
-      <c r="L100" s="17"/>
+      <c r="L100" s="21"/>
       <c r="M100" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="17"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="21"/>
       <c r="D101" s="4">
         <v>500</v>
       </c>
-      <c r="F101" s="17"/>
+      <c r="F101" s="21"/>
       <c r="G101" s="4">
         <v>500</v>
       </c>
-      <c r="I101" s="17"/>
+      <c r="I101" s="21"/>
       <c r="J101" s="4">
         <v>500</v>
       </c>
-      <c r="L101" s="17"/>
+      <c r="L101" s="21"/>
       <c r="M101" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="19" t="s">
+      <c r="A102" s="18"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="20"/>
-      <c r="F102" s="19" t="s">
+      <c r="D102" s="25"/>
+      <c r="F102" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="20"/>
-      <c r="I102" s="19" t="s">
+      <c r="G102" s="25"/>
+      <c r="I102" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J102" s="20"/>
-      <c r="L102" s="19" t="s">
+      <c r="J102" s="25"/>
+      <c r="L102" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M102" s="20"/>
+      <c r="M102" s="25"/>
     </row>
     <row r="103" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="27"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L103" s="7"/>
       <c r="M103" s="8"/>
     </row>
     <row r="104" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="27"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
     </row>
     <row r="105" spans="1:16" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="27"/>
+      <c r="A105" s="18"/>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
       <c r="O105" s="14"/>
       <c r="P105" s="14"/>
     </row>
     <row r="106" spans="1:16" ht="116.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
-      <c r="B106" s="18" t="s">
-        <v>82</v>
+      <c r="A106" s="18"/>
+      <c r="B106" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L107" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O107" s="6" t="s">
         <v>0</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="6" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L108" s="6" t="s">
         <v>1</v>
@@ -2652,32 +2669,32 @@
         <v>1</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="27"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="19" t="s">
+      <c r="A109" s="18"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="20"/>
-      <c r="F109" s="19" t="s">
+      <c r="D109" s="25"/>
+      <c r="F109" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G109" s="20"/>
-      <c r="L109" s="19" t="s">
+      <c r="G109" s="25"/>
+      <c r="L109" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M109" s="20"/>
-      <c r="O109" s="19" t="s">
+      <c r="M109" s="25"/>
+      <c r="O109" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P109" s="20"/>
+      <c r="P109" s="25"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="6" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2721,8 @@
       </c>
     </row>
     <row r="111" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="6" t="s">
         <v>4</v>
       </c>
@@ -2714,7 +2731,7 @@
         <v>4</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>4</v>
@@ -2726,33 +2743,33 @@
       <c r="P111" s="5"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="19" t="s">
+      <c r="A112" s="18"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="20"/>
-      <c r="F112" s="19" t="s">
+      <c r="D112" s="25"/>
+      <c r="F112" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="20"/>
-      <c r="L112" s="19" t="s">
+      <c r="G112" s="25"/>
+      <c r="L112" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M112" s="20"/>
-      <c r="O112" s="19" t="s">
+      <c r="M112" s="25"/>
+      <c r="O112" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P112" s="20"/>
+      <c r="P112" s="25"/>
     </row>
     <row r="113" spans="1:16" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="27"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="23" t="s">
+      <c r="A113" s="18"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="24" t="s">
-        <v>85</v>
+      <c r="D113" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>5</v>
@@ -2762,7 +2779,7 @@
         <v>5</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O113" s="6" t="s">
         <v>5</v>
@@ -2770,103 +2787,103 @@
       <c r="P113" s="5"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="27"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="24"/>
-      <c r="F114" s="23" t="s">
+      <c r="A114" s="18"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="28"/>
+      <c r="F114" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L114" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L114" s="21" t="s">
         <v>6</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O114" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O114" s="20" t="s">
         <v>6</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="17" t="s">
+      <c r="A115" s="18"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="4"/>
-      <c r="F115" s="23"/>
+      <c r="F115" s="20"/>
       <c r="G115" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L115" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="L115" s="21"/>
       <c r="M115" s="4"/>
-      <c r="O115" s="23"/>
+      <c r="O115" s="20"/>
       <c r="P115" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="17"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="21"/>
       <c r="D116" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="F116" s="20"/>
       <c r="G116" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L116" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="L116" s="21"/>
       <c r="M116" s="4"/>
-      <c r="O116" s="23"/>
+      <c r="O116" s="20"/>
       <c r="P116" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="17"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="21"/>
       <c r="D117" s="4"/>
-      <c r="F117" s="23"/>
+      <c r="F117" s="20"/>
       <c r="G117" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L117" s="17" t="s">
+      <c r="L117" s="21" t="s">
         <v>7</v>
       </c>
       <c r="M117" s="4">
         <v>200</v>
       </c>
-      <c r="O117" s="23"/>
+      <c r="O117" s="20"/>
       <c r="P117" s="4"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="27"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="17" t="s">
+      <c r="A118" s="18"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="4">
         <v>200</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F118" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G118" s="4">
         <v>200</v>
       </c>
-      <c r="L118" s="17"/>
+      <c r="L118" s="21"/>
       <c r="M118" s="4">
         <v>500</v>
       </c>
-      <c r="O118" s="17" t="s">
+      <c r="O118" s="21" t="s">
         <v>7</v>
       </c>
       <c r="P118" s="4">
@@ -2874,83 +2891,83 @@
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="17"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="21"/>
       <c r="D119" s="4">
         <v>400</v>
       </c>
-      <c r="F119" s="17"/>
+      <c r="F119" s="21"/>
       <c r="G119" s="4">
         <v>400</v>
       </c>
-      <c r="L119" s="17"/>
+      <c r="L119" s="21"/>
       <c r="M119" s="4">
         <v>400</v>
       </c>
-      <c r="O119" s="17"/>
+      <c r="O119" s="21"/>
       <c r="P119" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="27"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="17"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="21"/>
       <c r="D120" s="4">
         <v>500</v>
       </c>
-      <c r="F120" s="17"/>
+      <c r="F120" s="21"/>
       <c r="G120" s="4">
         <v>500</v>
       </c>
-      <c r="L120" s="19" t="s">
+      <c r="L120" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M120" s="20"/>
-      <c r="O120" s="17"/>
+      <c r="M120" s="25"/>
+      <c r="O120" s="21"/>
       <c r="P120" s="4"/>
     </row>
     <row r="121" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="27"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="19" t="s">
+      <c r="A121" s="18"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="20"/>
-      <c r="F121" s="19" t="s">
+      <c r="D121" s="25"/>
+      <c r="F121" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G121" s="20"/>
+      <c r="G121" s="25"/>
       <c r="L121" s="7"/>
       <c r="M121" s="8"/>
-      <c r="O121" s="19" t="s">
+      <c r="O121" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="P121" s="20"/>
+      <c r="P121" s="25"/>
     </row>
     <row r="122" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="27"/>
-      <c r="B122" s="18"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
       <c r="O122" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2958,68 +2975,68 @@
       <c r="M123" s="14"/>
     </row>
     <row r="124" spans="1:16" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>92</v>
+      <c r="A124" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="28"/>
-      <c r="B125" s="18"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L125" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M125" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="28"/>
-      <c r="B126" s="18"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="6" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L126" s="6" t="s">
         <v>1</v>
@@ -3046,28 +3063,28 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="28"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="19" t="s">
+      <c r="A127" s="19"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="20"/>
-      <c r="F127" s="19" t="s">
+      <c r="D127" s="25"/>
+      <c r="F127" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G127" s="20"/>
-      <c r="I127" s="19" t="s">
+      <c r="G127" s="25"/>
+      <c r="I127" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J127" s="20"/>
-      <c r="L127" s="19" t="s">
+      <c r="J127" s="25"/>
+      <c r="L127" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M127" s="20"/>
+      <c r="M127" s="25"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="28"/>
-      <c r="B128" s="18"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="6" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3111,8 @@
       </c>
     </row>
     <row r="129" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" s="28"/>
-      <c r="B129" s="18"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="6" t="s">
         <v>4</v>
       </c>
@@ -3104,13 +3121,13 @@
         <v>4</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L129" s="6" t="s">
         <v>4</v>
@@ -3118,39 +3135,39 @@
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="28"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="19" t="s">
+      <c r="A130" s="19"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="20"/>
-      <c r="F130" s="19" t="s">
+      <c r="D130" s="25"/>
+      <c r="F130" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G130" s="20"/>
-      <c r="I130" s="19" t="s">
+      <c r="G130" s="25"/>
+      <c r="I130" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J130" s="20"/>
-      <c r="L130" s="19" t="s">
+      <c r="J130" s="25"/>
+      <c r="L130" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M130" s="20"/>
+      <c r="M130" s="25"/>
     </row>
     <row r="131" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A131" s="28"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="23" t="s">
+      <c r="A131" s="19"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F131" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F131" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G131" s="5"/>
-      <c r="I131" s="23" t="s">
+      <c r="I131" s="20" t="s">
         <v>5</v>
       </c>
       <c r="J131" s="5"/>
@@ -3158,77 +3175,77 @@
         <v>5</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A132" s="28"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="23"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="20"/>
       <c r="D132" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F132" s="20"/>
+      <c r="G132" s="5"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="5"/>
+      <c r="L132" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A133" s="19"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F133" s="20"/>
+      <c r="G133" s="5"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="5"/>
+      <c r="L133" s="21"/>
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A134" s="19"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F132" s="23"/>
-      <c r="G132" s="5"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="5"/>
-      <c r="L132" s="17" t="s">
+      <c r="F134" s="20"/>
+      <c r="G134" s="5"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="5"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="4"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="19"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M132" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="5" t="s">
+      <c r="D135" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F133" s="23"/>
-      <c r="G133" s="5"/>
-      <c r="I133" s="23"/>
-      <c r="J133" s="5"/>
-      <c r="L133" s="17"/>
-      <c r="M133" s="4"/>
-    </row>
-    <row r="134" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A134" s="28"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F134" s="23"/>
-      <c r="G134" s="5"/>
-      <c r="I134" s="23"/>
-      <c r="J134" s="5"/>
-      <c r="L134" s="17"/>
-      <c r="M134" s="4"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="28"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="17" t="s">
+      <c r="F135" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F135" s="17" t="s">
+      <c r="G135" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I135" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="J135" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I135" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L135" s="17" t="s">
+      <c r="L135" s="21" t="s">
         <v>7</v>
       </c>
       <c r="M135" s="4">
@@ -3236,77 +3253,77 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="28"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="17"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="21"/>
       <c r="D136" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F136" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="F136" s="21"/>
       <c r="G136" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I136" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="I136" s="21"/>
       <c r="J136" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L136" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="L136" s="21"/>
       <c r="M136" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="28"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="17"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="21"/>
       <c r="D137" s="4"/>
-      <c r="F137" s="17"/>
+      <c r="F137" s="21"/>
       <c r="G137" s="4"/>
-      <c r="I137" s="17"/>
+      <c r="I137" s="21"/>
       <c r="J137" s="4"/>
-      <c r="L137" s="17"/>
+      <c r="L137" s="21"/>
       <c r="M137" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="28"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="17" t="s">
+      <c r="A138" s="19"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="4">
         <v>200</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="F138" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="4">
         <v>200</v>
       </c>
-      <c r="I138" s="17" t="s">
+      <c r="I138" s="21" t="s">
         <v>7</v>
       </c>
       <c r="J138" s="4">
         <v>200</v>
       </c>
-      <c r="L138" s="19" t="s">
+      <c r="L138" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M138" s="20"/>
+      <c r="M138" s="25"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="28"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="17"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="21"/>
       <c r="D139" s="4">
         <v>400</v>
       </c>
-      <c r="F139" s="17"/>
+      <c r="F139" s="21"/>
       <c r="G139" s="4">
         <v>400</v>
       </c>
-      <c r="I139" s="17"/>
+      <c r="I139" s="21"/>
       <c r="J139" s="4">
         <v>400</v>
       </c>
@@ -3314,197 +3331,197 @@
       <c r="M139" s="8"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="28"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="17"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="21"/>
       <c r="D140" s="4">
         <v>500</v>
       </c>
-      <c r="F140" s="17"/>
+      <c r="F140" s="21"/>
       <c r="G140" s="4">
         <v>500</v>
       </c>
-      <c r="I140" s="17"/>
+      <c r="I140" s="21"/>
       <c r="J140" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="28"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="19" t="s">
+      <c r="A141" s="19"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="20"/>
-      <c r="F141" s="19" t="s">
+      <c r="D141" s="25"/>
+      <c r="F141" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G141" s="20"/>
-      <c r="I141" s="19" t="s">
+      <c r="G141" s="25"/>
+      <c r="I141" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J141" s="20"/>
+      <c r="J141" s="25"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="28"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="23" t="s">
+      <c r="A142" s="19"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F142" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I142" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="19"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="F143" s="20"/>
+      <c r="G143" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I143" s="20"/>
+      <c r="J143" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="19"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F142" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G142" s="4" t="s">
+      <c r="F144" s="20"/>
+      <c r="G144" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I142" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="J142" s="4" t="s">
+      <c r="I144" s="20"/>
+      <c r="J144" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="28"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="4" t="s">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="19"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F143" s="23"/>
-      <c r="G143" s="4" t="s">
+      <c r="F145" s="20"/>
+      <c r="G145" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I143" s="23"/>
-      <c r="J143" s="4" t="s">
+      <c r="I145" s="20"/>
+      <c r="J145" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="28"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="4" t="s">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="19"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F144" s="23"/>
-      <c r="G144" s="4" t="s">
+      <c r="F146" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I144" s="23"/>
-      <c r="J144" s="4" t="s">
+      <c r="I146" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J146" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="28"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="4" t="s">
+    <row r="147" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="19"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F145" s="23"/>
-      <c r="G145" s="4" t="s">
+      <c r="F147" s="27"/>
+      <c r="G147" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I145" s="23"/>
-      <c r="J145" s="4" t="s">
+      <c r="I147" s="27"/>
+      <c r="J147" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="28"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F146" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I146" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="28"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F147" s="25"/>
-      <c r="G147" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I147" s="25"/>
-      <c r="J147" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="148" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="28"/>
+      <c r="A148" s="19"/>
     </row>
     <row r="149" spans="1:16" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="B149" s="18" t="s">
-        <v>113</v>
+      <c r="A149" s="19"/>
+      <c r="B149" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P149" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
-      <c r="B150" s="18"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O150" s="6" t="s">
         <v>0</v>
       </c>
       <c r="P150" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="28"/>
-      <c r="B151" s="18"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="6" t="s">
         <v>1</v>
       </c>
@@ -3515,34 +3532,34 @@
         <v>1</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O151" s="6" t="s">
         <v>1</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="28"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="19" t="s">
+      <c r="A152" s="19"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="20"/>
-      <c r="F152" s="19" t="s">
+      <c r="D152" s="25"/>
+      <c r="F152" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G152" s="20"/>
-      <c r="O152" s="19" t="s">
+      <c r="G152" s="25"/>
+      <c r="O152" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P152" s="20"/>
+      <c r="P152" s="25"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="28"/>
-      <c r="B153" s="18"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="6" t="s">
         <v>3</v>
       </c>
@@ -3563,8 +3580,8 @@
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="28"/>
-      <c r="B154" s="18"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="26"/>
       <c r="C154" s="6" t="s">
         <v>4</v>
       </c>
@@ -3579,29 +3596,29 @@
       <c r="P154" s="5"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="28"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="19" t="s">
+      <c r="A155" s="19"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D155" s="20"/>
-      <c r="F155" s="19" t="s">
+      <c r="D155" s="25"/>
+      <c r="F155" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G155" s="20"/>
-      <c r="O155" s="19" t="s">
+      <c r="G155" s="25"/>
+      <c r="O155" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P155" s="20"/>
+      <c r="P155" s="25"/>
     </row>
     <row r="156" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A156" s="28"/>
-      <c r="B156" s="18"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="26"/>
       <c r="C156" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>5</v>
@@ -3613,83 +3630,83 @@
       <c r="P156" s="5"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="28"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="23" t="s">
+      <c r="A157" s="19"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="5"/>
-      <c r="O157" s="23" t="s">
+      <c r="O157" s="20" t="s">
         <v>6</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="28"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="23"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="20"/>
       <c r="D158" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F158" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F158" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O158" s="23"/>
+        <v>128</v>
+      </c>
+      <c r="O158" s="20"/>
       <c r="P158" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="28"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="23"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="20"/>
       <c r="D159" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F159" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="F159" s="21"/>
       <c r="G159" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O159" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="O159" s="20"/>
       <c r="P159" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="28"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="23"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="20"/>
       <c r="D160" s="4"/>
-      <c r="F160" s="17"/>
+      <c r="F160" s="21"/>
       <c r="G160" s="4"/>
-      <c r="O160" s="23"/>
+      <c r="O160" s="20"/>
       <c r="P160" s="4"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="28"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="17" t="s">
+      <c r="A161" s="19"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="4">
         <v>200</v>
       </c>
-      <c r="F161" s="17" t="s">
+      <c r="F161" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G161" s="4">
         <v>200</v>
       </c>
-      <c r="O161" s="17" t="s">
+      <c r="O161" s="21" t="s">
         <v>7</v>
       </c>
       <c r="P161" s="4">
@@ -3697,194 +3714,321 @@
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="28"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="17"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="21"/>
       <c r="D162" s="4">
         <v>400</v>
       </c>
-      <c r="F162" s="17"/>
+      <c r="F162" s="21"/>
       <c r="G162" s="4">
         <v>400</v>
       </c>
-      <c r="O162" s="17"/>
+      <c r="O162" s="21"/>
       <c r="P162" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="28"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="17"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="21"/>
       <c r="D163" s="4">
         <v>500</v>
       </c>
-      <c r="F163" s="17"/>
+      <c r="F163" s="21"/>
       <c r="G163" s="4">
         <v>500</v>
       </c>
-      <c r="O163" s="17"/>
+      <c r="O163" s="21"/>
       <c r="P163" s="4"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="28"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="19" t="s">
+      <c r="A164" s="19"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="20"/>
-      <c r="F164" s="19" t="s">
+      <c r="D164" s="25"/>
+      <c r="F164" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G164" s="20"/>
-      <c r="O164" s="19" t="s">
+      <c r="G164" s="25"/>
+      <c r="O164" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="P164" s="20"/>
+      <c r="P164" s="25"/>
     </row>
     <row r="165" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="28"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="17" t="s">
+      <c r="A165" s="19"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F165" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="O165" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P165" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="19"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="F166" s="21"/>
+      <c r="G166" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="19"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F165" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G165" s="4" t="s">
+      <c r="F167" s="21"/>
+      <c r="G167" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="O165" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P165" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="28"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="4" t="s">
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="19"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F166" s="17"/>
-      <c r="G166" s="4" t="s">
+      <c r="F168" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G168" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="28"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="4" t="s">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="19"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F169" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F167" s="17"/>
-      <c r="G167" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" s="28"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D168" s="4" t="s">
+      <c r="G169" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F168" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F169" s="13" t="s">
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="19"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="28"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A171" s="28"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="17"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="21"/>
       <c r="D171" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A172" s="28"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="17"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="21"/>
       <c r="D172" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="19"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A173" s="28"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="F173" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="28"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="21"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="22"/>
       <c r="D174" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F174" s="15"/>
       <c r="G174" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B37:B52"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B5:B19"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B21:B35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B54:B86"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="B88:B104"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="L96:L98"/>
+    <mergeCell ref="L99:L101"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="O109:P109"/>
+    <mergeCell ref="O112:P112"/>
+    <mergeCell ref="O114:O117"/>
+    <mergeCell ref="O118:O120"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="B106:B122"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="B124:B142"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="L114:L116"/>
+    <mergeCell ref="L117:L119"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="I146:I147"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="L132:L134"/>
+    <mergeCell ref="L135:L137"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I131:I134"/>
+    <mergeCell ref="I135:I137"/>
+    <mergeCell ref="I138:I140"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:F134"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:F145"/>
+    <mergeCell ref="F146:F147"/>
     <mergeCell ref="A5:A35"/>
     <mergeCell ref="A37:A122"/>
     <mergeCell ref="A124:A174"/>
@@ -3909,133 +4053,6 @@
     <mergeCell ref="C152:D152"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="I146:I147"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="L130:M130"/>
-    <mergeCell ref="L132:L134"/>
-    <mergeCell ref="L135:L137"/>
-    <mergeCell ref="L138:M138"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="I131:I134"/>
-    <mergeCell ref="I135:I137"/>
-    <mergeCell ref="I138:I140"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:F134"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:F145"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="B124:B142"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="L114:L116"/>
-    <mergeCell ref="L117:L119"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="O109:P109"/>
-    <mergeCell ref="O112:P112"/>
-    <mergeCell ref="O114:O117"/>
-    <mergeCell ref="O118:O120"/>
-    <mergeCell ref="O121:P121"/>
-    <mergeCell ref="B106:B122"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="L96:L98"/>
-    <mergeCell ref="L99:L101"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="B88:B104"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B54:B86"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B5:B19"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B21:B35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B37:B52"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F51:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4043,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4055,7 +4072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4067,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
